--- a/medicine/Psychotrope/Flötzinger_Brauerei/Flötzinger_Brauerei.xlsx
+++ b/medicine/Psychotrope/Flötzinger_Brauerei/Flötzinger_Brauerei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fl%C3%B6tzinger_Brauerei</t>
+          <t>Flötzinger_Brauerei</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Flötzinger Brauerei est une brasserie à Rosenheim, en Allemagne.
-Lors de la Rosenheimer Herbstfest, la brasserie de la prairie de Loreto exploite le grand chapiteau Flötzinger pouvant accueillir environ 8 500 personnes[1]. Elle est considérée comme le plus grand festival de tente indépendant d'Europe.
+Lors de la Rosenheimer Herbstfest, la brasserie de la prairie de Loreto exploite le grand chapiteau Flötzinger pouvant accueillir environ 8 500 personnes. Elle est considérée comme le plus grand festival de tente indépendant d'Europe.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fl%C3%B6tzinger_Brauerei</t>
+          <t>Flötzinger_Brauerei</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'histoire de la brasserie commence en 1543, lorsque Guillaume IV de Bavière accorde la licence de brasserie au "Bräu in Wiesengasse". Johann Huber est mentionné comme le premier propriétaire du 16 octobre 1604 au 10 mars 1611. Erhard Westermayer devient propriétaire le 11 mars 1611. Simon Wältl est propriétaire jusqu'en 1705. La veuve de Wältl qui reprend fait faillite en 1710. Le domaine est acheté par l'homonyme de la brasserie Georg Fletzinger de Ramerberg. Après plusieurs changements de propriétaire, la brasserie est acquise en 1864 par Johann Krichbaumer, le grand-père de Franz Steegmüller II. Depuis la mort de Franz Steegmüller II en 2012, la brasserie est dirigée par la famille Steegmüller.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fl%C3%B6tzinger_Brauerei</t>
+          <t>Flötzinger_Brauerei</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Lager
 Hell : Alc. 5,2 % vol., densité primitive de moût 12,1 %
